--- a/fintech.xlsx
+++ b/fintech.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cơ chế bảo mật request" sheetId="1" r:id="rId1"/>
-    <sheet name="Đăng Ký" sheetId="2" r:id="rId2"/>
-    <sheet name="Đăng Nhập" sheetId="3" r:id="rId3"/>
+    <sheet name="Menu" sheetId="4" r:id="rId2"/>
+    <sheet name="Đăng Ký" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Client (App mobile)</t>
     <phoneticPr fontId="2"/>
@@ -59,12 +59,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. Thống nhất cách tạo khóa</t>
+    <t>Server (Window server)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. Thống nhất thuật toán tạo khóa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Server (Window server)</t>
-    <phoneticPr fontId="2"/>
+    <r>
+      <t>3. Từ server gửi về app t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng tự</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1696,16 +1723,427 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="223838"/>
+          <a:ext cx="2809875" cy="4262437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="547687" y="233363"/>
+          <a:ext cx="2805113" cy="490537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ABC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="266700"/>
+          <a:ext cx="414338" cy="414338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542924" y="233364"/>
+          <a:ext cx="1733551" cy="4257674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Home</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Transfer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Exposite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> / Deposite</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Account</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Info</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Setting</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>204789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1714,7 +2152,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1385888" y="671513"/>
+          <a:off x="1366837" y="652464"/>
           <a:ext cx="2809875" cy="4262437"/>
           <a:chOff x="1385888" y="671513"/>
           <a:chExt cx="2809875" cy="4262437"/>
@@ -2445,6 +2883,192 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="4133850"/>
+          <a:ext cx="923925" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Quang</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> cao 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9615489" y="4143375"/>
+          <a:ext cx="938212" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Quang</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> cao 2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563226" y="4138614"/>
+          <a:ext cx="890588" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Quang</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> cao 3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2713,9 +3337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BL27"/>
+  <dimension ref="A2:BL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -2727,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.7">
@@ -3929,7 +4555,12 @@
     </row>
     <row r="27" spans="1:64" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B27" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" ht="32.25" x14ac:dyDescent="0.7">
+      <c r="B28" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3943,11 +4574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.5625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3960,12 +4591,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="4.5625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>